--- a/doc/08.ログイン用アカウント情報.xlsx
+++ b/doc/08.ログイン用アカウント情報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7CE39-78E7-4458-BD3C-95802A672C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A204D60-C398-4A04-BD8E-7CB3870D778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>上司次郎</t>
   </si>
@@ -282,6 +282,29 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部下配属権限</t>
+    <rPh sb="0" eb="2">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理権限</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,9 +714,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -713,21 +736,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2670A-8985-4206-B850-1E34C4F6542C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -743,11 +767,14 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -763,8 +790,11 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -780,8 +810,11 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -797,8 +830,11 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -814,8 +850,11 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -831,8 +870,11 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -848,8 +890,11 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -865,8 +910,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -883,7 +931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -903,7 +951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -920,7 +968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -937,7 +985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -954,7 +1002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -971,7 +1019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -988,7 +1036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1005,7 +1053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1022,7 +1070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1039,7 +1087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1056,7 +1104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1073,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -1093,7 +1141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -1119,22 +1167,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA1E033-DEB2-4407-B59A-943E5C8E6E0B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1144,8 +1192,11 @@
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1155,8 +1206,11 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
@@ -1166,8 +1220,11 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
@@ -1178,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>1003</v>
       </c>
@@ -1189,7 +1246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>1004</v>
       </c>
